--- a/SCRUM 13072020.xlsx
+++ b/SCRUM 13072020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S&amp;NAHYAH\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProyectoX\Proyecto Android\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC886A75-90AA-4007-88C4-F39956D2E2CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9364BE7-4CCF-4FAB-BB2F-00B566FC1375}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="817" activeTab="2" xr2:uid="{109528E5-9DD3-42A1-8F93-E78092CD8BEE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="817" activeTab="1" xr2:uid="{109528E5-9DD3-42A1-8F93-E78092CD8BEE}"/>
   </bookViews>
   <sheets>
     <sheet name="CRITERIOS" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="TABLE_2">CRITERIOS!#REF!</definedName>
     <definedName name="TABLE_3">CRITERIOS!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -682,7 +684,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -734,6 +736,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,7 +889,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -990,9 +998,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1043,6 +1048,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1641,31 +1652,31 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="57.85546875" style="15" customWidth="1"/>
-    <col min="5" max="5" width="52.5703125" style="15" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="57.88671875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="52.5546875" style="15" customWidth="1"/>
     <col min="6" max="6" width="59" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
       <c r="F1"/>
     </row>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C2" s="21"/>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="53"/>
-    </row>
-    <row r="3" spans="3:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="51"/>
+      <c r="F2" s="52"/>
+    </row>
+    <row r="3" spans="3:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="30" t="s">
         <v>7</v>
       </c>
@@ -1679,7 +1690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="25" t="s">
         <v>8</v>
       </c>
@@ -1693,7 +1704,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="3:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="25" t="s">
         <v>8</v>
       </c>
@@ -1707,7 +1718,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="3:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="25" t="s">
         <v>8</v>
       </c>
@@ -1721,7 +1732,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="3:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="25" t="s">
         <v>91</v>
       </c>
@@ -1735,7 +1746,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C8" s="25" t="s">
         <v>91</v>
       </c>
@@ -1745,7 +1756,7 @@
       <c r="E8" s="20"/>
       <c r="F8" s="26"/>
     </row>
-    <row r="9" spans="3:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="25" t="s">
         <v>91</v>
       </c>
@@ -1755,7 +1766,7 @@
       <c r="E9" s="27"/>
       <c r="F9" s="28"/>
     </row>
-    <row r="10" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C10" s="25" t="s">
         <v>92</v>
       </c>
@@ -1769,7 +1780,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C11" s="33" t="s">
         <v>92</v>
       </c>
@@ -1781,7 +1792,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="3:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="25" t="s">
         <v>93</v>
       </c>
@@ -1795,7 +1806,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="3:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="25" t="s">
         <v>93</v>
       </c>
@@ -1807,7 +1818,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C14" s="33" t="s">
         <v>94</v>
       </c>
@@ -1821,7 +1832,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C15" s="33" t="s">
         <v>94</v>
       </c>
@@ -1835,7 +1846,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="3:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="33" t="s">
         <v>94</v>
       </c>
@@ -1847,7 +1858,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C17" s="33" t="s">
         <v>95</v>
       </c>
@@ -1861,7 +1872,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="3:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="33" t="s">
         <v>95</v>
       </c>
@@ -1873,7 +1884,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C19" s="33" t="s">
         <v>95</v>
       </c>
@@ -1885,7 +1896,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="3:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="28" t="s">
         <v>96</v>
       </c>
@@ -1899,7 +1910,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="3:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="28" t="s">
         <v>96</v>
       </c>
@@ -1913,7 +1924,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="3:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="28" t="s">
         <v>96</v>
       </c>
@@ -1923,51 +1934,51 @@
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C31" s="15"/>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C32" s="15"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="15"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" s="15"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35" s="15"/>
     </row>
   </sheetData>
@@ -1987,195 +1998,195 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF91724-0500-4FE0-9F95-5D3A22D6DE28}">
   <dimension ref="A1:BP12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.44140625" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" customWidth="1"/>
-    <col min="9" max="9" width="1.7109375" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" customWidth="1"/>
-    <col min="11" max="11" width="6.42578125" customWidth="1"/>
-    <col min="12" max="12" width="1.85546875" customWidth="1"/>
-    <col min="13" max="13" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="1.7109375" customWidth="1"/>
-    <col min="16" max="16" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.42578125" customWidth="1"/>
-    <col min="19" max="19" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.140625" customWidth="1"/>
-    <col min="22" max="22" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="2.7109375" customWidth="1"/>
-    <col min="25" max="25" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="2.5703125" customWidth="1"/>
-    <col min="28" max="28" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="2.5703125" customWidth="1"/>
-    <col min="31" max="31" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="3.28515625" customWidth="1"/>
-    <col min="34" max="34" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="3.28515625" customWidth="1"/>
-    <col min="37" max="37" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="2.42578125" customWidth="1"/>
-    <col min="40" max="40" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.44140625" customWidth="1"/>
+    <col min="9" max="9" width="1.6640625" customWidth="1"/>
+    <col min="10" max="10" width="6.5546875" customWidth="1"/>
+    <col min="11" max="11" width="6.44140625" customWidth="1"/>
+    <col min="12" max="12" width="1.88671875" customWidth="1"/>
+    <col min="13" max="13" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="1.6640625" customWidth="1"/>
+    <col min="16" max="16" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.44140625" customWidth="1"/>
+    <col min="19" max="19" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.109375" customWidth="1"/>
+    <col min="22" max="22" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="2.6640625" customWidth="1"/>
+    <col min="25" max="25" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="2.5546875" customWidth="1"/>
+    <col min="28" max="28" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="2.5546875" customWidth="1"/>
+    <col min="31" max="31" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.33203125" customWidth="1"/>
+    <col min="34" max="34" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="3.33203125" customWidth="1"/>
+    <col min="37" max="37" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="2.44140625" customWidth="1"/>
+    <col min="40" max="40" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="2" customWidth="1"/>
-    <col min="43" max="43" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="1.7109375" customWidth="1"/>
-    <col min="46" max="46" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="2.85546875" customWidth="1"/>
-    <col min="49" max="49" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="2.42578125" customWidth="1"/>
-    <col min="52" max="52" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="3.85546875" customWidth="1"/>
-    <col min="55" max="55" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="2.85546875" customWidth="1"/>
-    <col min="58" max="58" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="1.6640625" customWidth="1"/>
+    <col min="46" max="46" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="2.88671875" customWidth="1"/>
+    <col min="49" max="49" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="2.44140625" customWidth="1"/>
+    <col min="52" max="52" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="3.88671875" customWidth="1"/>
+    <col min="55" max="55" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="2.88671875" customWidth="1"/>
+    <col min="58" max="58" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="3" customWidth="1"/>
-    <col min="61" max="61" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="2.7109375" customWidth="1"/>
-    <col min="64" max="64" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="2.28515625" customWidth="1"/>
+    <col min="61" max="61" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="2.6640625" customWidth="1"/>
+    <col min="64" max="64" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="2.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41"/>
-    </row>
-    <row r="2" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="54" t="s">
+    <row r="1" spans="1:68" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="40"/>
+    </row>
+    <row r="2" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="51" t="s">
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="53"/>
+      <c r="H2" s="52"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="51" t="s">
+      <c r="J2" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="53"/>
+      <c r="K2" s="52"/>
       <c r="L2" s="7"/>
-      <c r="M2" s="51" t="s">
+      <c r="M2" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="53"/>
+      <c r="N2" s="52"/>
       <c r="O2" s="7"/>
-      <c r="P2" s="51" t="s">
+      <c r="P2" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="53"/>
+      <c r="Q2" s="52"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="51" t="s">
+      <c r="S2" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="53"/>
+      <c r="T2" s="52"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="51" t="s">
+      <c r="V2" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="53"/>
+      <c r="W2" s="52"/>
       <c r="X2" s="7"/>
-      <c r="Y2" s="51" t="s">
+      <c r="Y2" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="Z2" s="53"/>
+      <c r="Z2" s="52"/>
       <c r="AA2" s="7"/>
-      <c r="AB2" s="51" t="s">
+      <c r="AB2" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="AC2" s="53"/>
+      <c r="AC2" s="52"/>
       <c r="AD2" s="7"/>
-      <c r="AE2" s="51" t="s">
+      <c r="AE2" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="AF2" s="53"/>
+      <c r="AF2" s="52"/>
       <c r="AG2" s="7"/>
-      <c r="AH2" s="51" t="s">
+      <c r="AH2" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="AI2" s="53"/>
+      <c r="AI2" s="52"/>
       <c r="AJ2" s="7"/>
-      <c r="AK2" s="51" t="s">
+      <c r="AK2" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="AL2" s="53"/>
+      <c r="AL2" s="52"/>
       <c r="AM2" s="7"/>
-      <c r="AN2" s="51" t="s">
+      <c r="AN2" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="AO2" s="53"/>
+      <c r="AO2" s="52"/>
       <c r="AP2" s="7"/>
-      <c r="AQ2" s="51" t="s">
+      <c r="AQ2" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="AR2" s="53"/>
+      <c r="AR2" s="52"/>
       <c r="AS2" s="7"/>
-      <c r="AT2" s="51" t="s">
+      <c r="AT2" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="AU2" s="53"/>
+      <c r="AU2" s="52"/>
       <c r="AV2" s="7"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AW2" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="AX2" s="53"/>
+      <c r="AX2" s="52"/>
       <c r="AY2" s="7"/>
-      <c r="AZ2" s="51" t="s">
+      <c r="AZ2" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="BA2" s="53"/>
+      <c r="BA2" s="52"/>
       <c r="BB2" s="7"/>
-      <c r="BC2" s="51" t="s">
+      <c r="BC2" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="BD2" s="53"/>
+      <c r="BD2" s="52"/>
       <c r="BE2" s="7"/>
-      <c r="BF2" s="51" t="s">
+      <c r="BF2" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="BG2" s="53"/>
+      <c r="BG2" s="52"/>
       <c r="BH2" s="7"/>
-      <c r="BI2" s="51" t="s">
+      <c r="BI2" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="BJ2" s="53"/>
+      <c r="BJ2" s="52"/>
       <c r="BK2" s="7"/>
-      <c r="BL2" s="51" t="s">
+      <c r="BL2" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="BM2" s="53"/>
+      <c r="BM2" s="52"/>
       <c r="BN2" s="7"/>
-      <c r="BO2" s="51" t="s">
+      <c r="BO2" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="BP2" s="53"/>
-    </row>
-    <row r="3" spans="1:68" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BP2" s="52"/>
+    </row>
+    <row r="3" spans="1:68" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -2341,21 +2352,21 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="39" t="str">
+      <c r="B4" s="59" t="str">
         <f>IFERROR(VLOOKUP(A4,'PRODUCT BACKLOG'!$C$2:$E$9,3,FALSE),"No existe")</f>
         <v>Que mis clientes realicen pedidos desde su celular</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="39">
         <v>8</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="39">
         <v>3</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="40" t="s">
         <v>138</v>
       </c>
       <c r="F4" s="9">
@@ -2491,21 +2502,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="39" t="str">
+      <c r="B5" s="38" t="str">
         <f>IFERROR(VLOOKUP(A5,'PRODUCT BACKLOG'!$C$2:$E$9,3,FALSE),"No existe")</f>
         <v>Que mis clientes puedan registrarse a mi aplicación</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="39">
         <v>5</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="39">
         <v>2</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="39" t="s">
         <v>136</v>
       </c>
       <c r="F5" s="9">
@@ -2641,21 +2652,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="39" t="str">
+      <c r="B6" s="60" t="str">
         <f>IFERROR(VLOOKUP(A6,'PRODUCT BACKLOG'!$C$2:$E$9,3,FALSE),"No existe")</f>
         <v>Quiero ver el pedido de mis cliente antes de apersonarse a la tienda</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="39">
         <v>3</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D6" s="39">
         <v>2</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="39" t="s">
         <v>140</v>
       </c>
       <c r="F6" s="9">
@@ -2791,21 +2802,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="39" t="str">
+      <c r="B7" s="38" t="str">
         <f>IFERROR(VLOOKUP(A7,'PRODUCT BACKLOG'!$C$2:$E$9,3,FALSE),"No existe")</f>
         <v>Quiero que mis clientes puedan visualizar mis productos su stock y el costo</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="39">
         <v>8</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="39">
         <v>3</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="39" t="s">
         <v>137</v>
       </c>
       <c r="F7" s="9">
@@ -2941,21 +2952,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:68" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:68" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="39" t="str">
+      <c r="B8" s="60" t="str">
         <f>IFERROR(VLOOKUP(A8,'PRODUCT BACKLOG'!$C$2:$E$9,3,FALSE),"No existe")</f>
         <v>Que mis clientes pueda realizar su pago de 2 formas ( transferencia o efectivo ) y tambien tengan la opción de realizar una solicitud a credito</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="39">
         <v>5</v>
       </c>
-      <c r="D8" s="40">
+      <c r="D8" s="39">
         <v>3</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="39" t="s">
         <v>139</v>
       </c>
       <c r="F8" s="9">
@@ -3091,21 +3102,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="39" t="str">
+      <c r="B9" s="60" t="str">
         <f>IFERROR(VLOOKUP(A9,'PRODUCT BACKLOG'!$C$2:$E$9,3,FALSE),"No existe")</f>
         <v>Que el cliente reciba una alerta informando que su pedido está listo.</v>
       </c>
-      <c r="C9" s="40">
+      <c r="C9" s="39">
         <v>5</v>
       </c>
-      <c r="D9" s="40">
+      <c r="D9" s="39">
         <v>2</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="39" t="s">
         <v>141</v>
       </c>
       <c r="F9" s="9">
@@ -3241,21 +3252,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="39" t="str">
+      <c r="B10" s="38" t="str">
         <f>IFERROR(VLOOKUP(A10,'PRODUCT BACKLOG'!$C$2:$E$9,3,FALSE),"No existe")</f>
         <v xml:space="preserve">Saber el stock de los productos para una posible generación de pedido o venta </v>
       </c>
-      <c r="C10" s="40">
+      <c r="C10" s="39">
         <v>3</v>
       </c>
-      <c r="D10" s="40">
+      <c r="D10" s="39">
         <v>2</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="39" t="s">
         <v>136</v>
       </c>
       <c r="F10" s="9">
@@ -3391,8 +3402,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="E11" s="47" t="s">
+    <row r="11" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="E11" s="46" t="s">
         <v>165</v>
       </c>
       <c r="F11" s="4">
@@ -3400,8 +3411,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="E12" s="48" t="s">
+    <row r="12" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="E12" s="47" t="s">
         <v>166</v>
       </c>
       <c r="F12" s="4">
@@ -3411,16 +3422,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="S2:T2"/>
     <mergeCell ref="BO2:BP2"/>
     <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AK2:AL2"/>
@@ -3433,6 +3434,16 @@
     <mergeCell ref="BF2:BG2"/>
     <mergeCell ref="BI2:BJ2"/>
     <mergeCell ref="BL2:BM2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3446,21 +3457,21 @@
   </sheetPr>
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="42" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" style="42" customWidth="1"/>
-    <col min="3" max="3" width="66.42578125" style="42" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" style="42" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="42" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" style="42" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" style="41" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" style="41" customWidth="1"/>
+    <col min="3" max="3" width="66.44140625" style="41" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" style="41" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="41" customWidth="1"/>
+    <col min="6" max="6" width="24.109375" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -3468,7 +3479,7 @@
       <c r="E1"/>
       <c r="F1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
@@ -3476,7 +3487,7 @@
       <c r="E2"/>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3"/>
@@ -3484,517 +3495,517 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4"/>
       <c r="B4"/>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="53"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="52"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="49" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="49" t="s">
+      <c r="B6" s="43"/>
+      <c r="C6" s="48" t="s">
         <v>167</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6"/>
-      <c r="G6" s="45"/>
-    </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
+      <c r="G6" s="44"/>
+    </row>
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="49" t="s">
+      <c r="B7" s="43"/>
+      <c r="C7" s="48" t="s">
         <v>147</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
       <c r="F7"/>
-      <c r="G7" s="45"/>
-    </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="G7" s="44"/>
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="49" t="s">
+      <c r="B8" s="43"/>
+      <c r="C8" s="48" t="s">
         <v>148</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
       <c r="F8"/>
-      <c r="G8" s="45"/>
-    </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
+      <c r="G8" s="44"/>
+    </row>
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="49" t="s">
+      <c r="B9" s="43"/>
+      <c r="C9" s="48" t="s">
         <v>143</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9"/>
-      <c r="G9" s="45"/>
-    </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
+      <c r="G9" s="44"/>
+    </row>
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="49" t="s">
+      <c r="B10" s="43"/>
+      <c r="C10" s="48" t="s">
         <v>144</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
       <c r="F10"/>
-      <c r="G10" s="45"/>
-    </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
+      <c r="G10" s="44"/>
+    </row>
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="49" t="s">
+      <c r="B11" s="43"/>
+      <c r="C11" s="48" t="s">
         <v>168</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
       <c r="F11"/>
-      <c r="G11" s="45"/>
-    </row>
-    <row r="12" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
+      <c r="G11" s="44"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="44" t="str">
+      <c r="B12" s="43" t="str">
         <f>IFERROR(VLOOKUP(A12,TABLE_3,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="48" t="s">
         <v>169</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
-      <c r="G12" s="45"/>
-    </row>
-    <row r="13" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
+      <c r="G12" s="44"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="49" t="s">
+      <c r="B13" s="43"/>
+      <c r="C13" s="48" t="s">
         <v>170</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13"/>
-      <c r="G13" s="45"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+      <c r="G13" s="44"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="49" t="s">
+      <c r="B14" s="43"/>
+      <c r="C14" s="48" t="s">
         <v>149</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
-      <c r="G14" s="45"/>
-    </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
+      <c r="G14" s="44"/>
+    </row>
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="49" t="s">
+      <c r="B15" s="43"/>
+      <c r="C15" s="48" t="s">
         <v>145</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15"/>
-      <c r="G15" s="45"/>
-    </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
+      <c r="G15" s="44"/>
+    </row>
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="49" t="s">
+      <c r="B16" s="43"/>
+      <c r="C16" s="48" t="s">
         <v>171</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
       <c r="F16"/>
-      <c r="G16" s="45"/>
-    </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
+      <c r="G16" s="44"/>
+    </row>
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="49" t="s">
+      <c r="B17" s="43"/>
+      <c r="C17" s="48" t="s">
         <v>150</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17"/>
-      <c r="G17" s="45"/>
-    </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="44" t="s">
+      <c r="G17" s="44"/>
+    </row>
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="49" t="s">
+      <c r="B18" s="43"/>
+      <c r="C18" s="48" t="s">
         <v>146</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18"/>
-      <c r="G18" s="45"/>
-    </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
+      <c r="G18" s="44"/>
+    </row>
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="49" t="s">
+      <c r="B19" s="43"/>
+      <c r="C19" s="48" t="s">
         <v>172</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19"/>
-      <c r="G19" s="45"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
+      <c r="G19" s="44"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="44" t="str">
+      <c r="B20" s="43" t="str">
         <f>IFERROR(VLOOKUP(A20,TABLE_3,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="C20" s="49" t="s">
+      <c r="C20" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="45"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="44" t="s">
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="44"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="49" t="s">
+      <c r="B21" s="43"/>
+      <c r="C21" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="45"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="44" t="s">
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="44"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="49" t="s">
+      <c r="B22" s="43"/>
+      <c r="C22" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="45"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="44" t="s">
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="44"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="49" t="s">
+      <c r="B23" s="43"/>
+      <c r="C23" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="45"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="44" t="s">
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="44"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="49" t="s">
+      <c r="B24" s="43"/>
+      <c r="C24" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="45"/>
-    </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="44" t="s">
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="44"/>
+    </row>
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="44" t="str">
+      <c r="B25" s="43" t="str">
         <f>IFERROR(VLOOKUP(A25,TABLE_3,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="45"/>
-    </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="44" t="s">
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="44"/>
+    </row>
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="49" t="s">
+      <c r="B26" s="43"/>
+      <c r="C26" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="45"/>
-    </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="44" t="s">
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="44"/>
+    </row>
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="49" t="s">
+      <c r="B27" s="43"/>
+      <c r="C27" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="45"/>
-    </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="44" t="s">
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="44"/>
+    </row>
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="49" t="s">
+      <c r="B28" s="43"/>
+      <c r="C28" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="45"/>
-    </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="44" t="s">
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="44"/>
+    </row>
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="44" t="str">
+      <c r="B29" s="43" t="str">
         <f>IFERROR(VLOOKUP(A29,TABLE_3,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="45"/>
-    </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="44" t="s">
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="44"/>
+    </row>
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="B30" s="44"/>
-      <c r="C30" s="49" t="s">
+      <c r="B30" s="43"/>
+      <c r="C30" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="45"/>
-    </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="44" t="s">
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="44"/>
+    </row>
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="49" t="s">
+      <c r="B31" s="43"/>
+      <c r="C31" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="45"/>
-    </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="44" t="s">
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="44"/>
+    </row>
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="44"/>
-      <c r="C32" s="49" t="s">
+      <c r="B32" s="43"/>
+      <c r="C32" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="45"/>
-    </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="44" t="s">
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="44"/>
+    </row>
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="B33" s="44"/>
-      <c r="C33" s="49" t="s">
+      <c r="B33" s="43"/>
+      <c r="C33" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="45"/>
-    </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="44" t="s">
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="44"/>
+    </row>
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="B34" s="44" t="str">
+      <c r="B34" s="43" t="str">
         <f>IFERROR(VLOOKUP(A35,TABLE_3,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="C34" s="49" t="s">
+      <c r="C34" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="45"/>
-    </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="44" t="s">
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="44"/>
+    </row>
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="44"/>
-      <c r="C35" s="49" t="s">
+      <c r="B35" s="43"/>
+      <c r="C35" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="45"/>
-    </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="44" t="s">
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="44"/>
+    </row>
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="44"/>
-      <c r="C36" s="49" t="s">
+      <c r="B36" s="43"/>
+      <c r="C36" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="45"/>
-    </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="44" t="s">
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="44"/>
+    </row>
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="B37" s="44" t="str">
+      <c r="B37" s="43" t="str">
         <f>IFERROR(VLOOKUP(A37,TABLE_3,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="C37" s="49" t="s">
+      <c r="C37" s="48" t="s">
         <v>182</v>
       </c>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="45"/>
-    </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="44" t="s">
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="44"/>
+    </row>
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="B38" s="44"/>
-      <c r="C38" s="49" t="s">
+      <c r="B38" s="43"/>
+      <c r="C38" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="45"/>
-    </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="44" t="s">
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="44"/>
+    </row>
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="B39" s="44"/>
-      <c r="C39" s="49" t="s">
+      <c r="B39" s="43"/>
+      <c r="C39" s="48" t="s">
         <v>163</v>
       </c>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="45"/>
-    </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="44" t="s">
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="44"/>
+    </row>
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="B40" s="44"/>
-      <c r="C40" s="49" t="s">
+      <c r="B40" s="43"/>
+      <c r="C40" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="45"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="44"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="44"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="43"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4022,23 +4033,23 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.28515625" customWidth="1"/>
-    <col min="3" max="3" width="38.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="3" max="3" width="38.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="57" t="s">
+    <row r="2" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="59"/>
-    </row>
-    <row r="3" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
+    </row>
+    <row r="3" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -4064,13 +4075,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="6"/>
       <c r="C4" s="4"/>
       <c r="D4" s="14"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="6"/>
@@ -4080,7 +4091,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="6"/>
@@ -4090,7 +4101,7 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6"/>
@@ -4100,7 +4111,7 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="6"/>
@@ -4110,7 +4121,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="6"/>
@@ -4120,7 +4131,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="6"/>
@@ -4130,7 +4141,7 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="6"/>
@@ -4140,7 +4151,7 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="6"/>
@@ -4150,7 +4161,7 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="6"/>
@@ -4179,29 +4190,29 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="18" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="18" customWidth="1"/>
     <col min="5" max="5" width="36" style="18" customWidth="1"/>
     <col min="6" max="6" width="33" style="18" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.5703125" style="1"/>
+    <col min="7" max="7" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="52"/>
-      <c r="F1" s="53"/>
-    </row>
-    <row r="2" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="51"/>
+      <c r="F1" s="52"/>
+    </row>
+    <row r="2" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>69</v>
       </c>
@@ -4224,7 +4235,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="34">
         <v>1</v>
       </c>
@@ -4247,7 +4258,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="34">
         <v>2</v>
       </c>
@@ -4270,7 +4281,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="34">
         <v>3</v>
       </c>
@@ -4293,7 +4304,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="34">
         <v>4</v>
       </c>
@@ -4313,7 +4324,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>5</v>
       </c>
@@ -4333,7 +4344,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="34">
         <v>6</v>
       </c>
@@ -4353,7 +4364,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="31">
         <v>7</v>
       </c>
@@ -4391,13 +4402,13 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
@@ -4405,7 +4416,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>15</v>
       </c>
@@ -4413,7 +4424,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>16</v>
       </c>
@@ -4421,23 +4432,23 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="42" t="s">
         <v>142</v>
       </c>
       <c r="B9">
